--- a/Config/Excel/Story.xlsx
+++ b/Config/Excel/Story.xlsx
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/Config/Excel/Story.xlsx
+++ b/Config/Excel/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15520"/>
+    <workbookView windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="剧情" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>剧情ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>选项2内容</t>
+  </si>
+  <si>
+    <t>选项2跳转ID</t>
   </si>
   <si>
     <t>选项3内容</t>
@@ -116,14 +119,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,148 +575,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1044,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1094,16 +1090,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1117,7 +1113,7 @@
         <v>1001</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1137,7 +1133,7 @@
         <v>1002</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1154,7 +1150,7 @@
         <v>1001</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1171,7 +1167,7 @@
         <v>1002</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1188,19 +1184,19 @@
         <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -1217,26 +1213,25 @@
         <v>1002</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7"/>
+        <v>20</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -1253,25 +1248,25 @@
         <v>1002</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -1288,19 +1283,19 @@
         <v>1001</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>12</v>
@@ -1317,19 +1312,19 @@
         <v>1001</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -1346,20 +1341,19 @@
         <v>1001</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11"/>
+        <v>27</v>
+      </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>12</v>
@@ -1376,7 +1370,7 @@
         <v>1002</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>13</v>
@@ -1393,19 +1387,19 @@
         <v>1001</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -1422,7 +1416,7 @@
         <v>1001</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14">
         <v>1</v>
